--- a/src/test/java/Orders/Data/Orders.xlsx
+++ b/src/test/java/Orders/Data/Orders.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APIAutomation\Automation_OMSAPI\src\test\java\Orders\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9E80884-C94E-4A75-A2B5-8EC14582DB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF479F1E-C9B8-4CA3-8C61-84553B504BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="357" activeTab="2" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
+    <workbookView minimized="1" xWindow="41820" yWindow="5985" windowWidth="5880" windowHeight="8175" tabRatio="357" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
   </bookViews>
   <sheets>
     <sheet name="OrderSubscriptions" sheetId="14" r:id="rId1"/>
@@ -2579,7 +2579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2623,12 +2623,9 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2945,7 +2942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA8D027-6E8C-4E62-B2F3-94FA83F4F6D0}">
   <dimension ref="A1:AK27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -6678,8 +6675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE28C66-BE72-445A-97A3-AEF10187A804}">
   <dimension ref="A1:V7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="S6" sqref="S6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7209,66 +7206,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="14" t="s">
         <v>340</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="R1" s="1" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" t="s">
         <v>349</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -7321,10 +7318,10 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" t="s">
         <v>355</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -7377,10 +7374,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" t="s">
         <v>367</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -7433,10 +7430,10 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" t="s">
         <v>372</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -7489,10 +7486,10 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" t="s">
         <v>396</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -7545,10 +7542,10 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" t="s">
         <v>397</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -7601,10 +7598,10 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" t="s">
         <v>400</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -7657,10 +7654,10 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" t="s">
         <v>403</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -7713,10 +7710,10 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+      <c r="A10" t="s">
         <v>405</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -7769,10 +7766,10 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" t="s">
         <v>414</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -7825,10 +7822,10 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" t="s">
         <v>376</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="3" t="s">
@@ -7881,10 +7878,10 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="A13" t="s">
         <v>380</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -7937,10 +7934,10 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="A14" t="s">
         <v>384</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -7993,10 +7990,10 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" t="s">
         <v>388</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
@@ -8049,10 +8046,10 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="A16" t="s">
         <v>392</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" t="s">
         <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -8114,85 +8111,84 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC32307C-E7E7-45A6-BDDF-2098EC346FB1}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="21" customWidth="1"/>
-    <col min="3" max="4" width="44.85546875" style="21" customWidth="1"/>
-    <col min="5" max="5" width="157.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="44.85546875" style="21" customWidth="1"/>
-    <col min="8" max="8" width="49.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="30.140625" style="21" customWidth="1"/>
-    <col min="12" max="14" width="32.140625" style="21" customWidth="1"/>
-    <col min="15" max="15" width="41.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="37.28515625" style="21" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="21"/>
+    <col min="1" max="1" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="4" width="44.85546875" customWidth="1"/>
+    <col min="5" max="5" width="217.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="44.85546875" customWidth="1"/>
+    <col min="8" max="8" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="30.140625" customWidth="1"/>
+    <col min="12" max="14" width="32.140625" customWidth="1"/>
+    <col min="15" max="15" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="37.28515625" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="P1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="2" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" t="s">
         <v>418</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -8204,7 +8200,7 @@
       <c r="E2" s="17" t="s">
         <v>419</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2">
         <v>200</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -8241,11 +8237,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:17" ht="195" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>425</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -8254,10 +8250,10 @@
       <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="21" t="s">
         <v>426</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3">
         <v>200</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -8295,10 +8291,10 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" t="s">
         <v>422</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -8310,7 +8306,7 @@
       <c r="E4" s="17" t="s">
         <v>421</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4">
         <v>200</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -8348,10 +8344,10 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" t="s">
         <v>423</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -8363,7 +8359,7 @@
       <c r="E5" s="17" t="s">
         <v>443</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5">
         <v>200</v>
       </c>
       <c r="G5" s="17" t="s">
@@ -8401,10 +8397,10 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" t="s">
         <v>430</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -8416,7 +8412,7 @@
       <c r="E6" s="17" t="s">
         <v>431</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6">
         <v>200</v>
       </c>
       <c r="G6" s="3" t="s">
@@ -8468,78 +8464,77 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="21" customWidth="1"/>
-    <col min="3" max="4" width="44.85546875" style="21" customWidth="1"/>
-    <col min="5" max="5" width="157.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="44.85546875" style="21" customWidth="1"/>
-    <col min="8" max="8" width="49.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="27.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="30.140625" style="21" customWidth="1"/>
-    <col min="12" max="15" width="32.140625" style="21" customWidth="1"/>
-    <col min="16" max="16" width="37.28515625" style="21" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="21"/>
+    <col min="1" max="1" width="54.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="4" width="44.85546875" customWidth="1"/>
+    <col min="5" max="5" width="157.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="44.85546875" customWidth="1"/>
+    <col min="8" max="8" width="49.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="30.140625" customWidth="1"/>
+    <col min="12" max="15" width="32.140625" customWidth="1"/>
+    <col min="16" max="16" width="37.28515625" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="14" t="s">
         <v>318</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="P1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="2" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" t="s">
         <v>427</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -8551,7 +8546,7 @@
       <c r="E2" s="17" t="s">
         <v>428</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2">
         <v>200</v>
       </c>
       <c r="G2" s="3" t="s">
@@ -8589,10 +8584,10 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="A3" t="s">
         <v>433</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -8604,7 +8599,7 @@
       <c r="E3" s="17" t="s">
         <v>434</v>
       </c>
-      <c r="F3" s="21">
+      <c r="F3">
         <v>200</v>
       </c>
       <c r="G3" s="3" t="s">
@@ -8642,10 +8637,10 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" t="s">
         <v>436</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="3" t="s">
@@ -8657,7 +8652,7 @@
       <c r="E4" s="17" t="s">
         <v>438</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4">
         <v>200</v>
       </c>
       <c r="G4" s="3" t="s">
@@ -8695,10 +8690,10 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" t="s">
         <v>437</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -8710,7 +8705,7 @@
       <c r="E5" s="17" t="s">
         <v>448</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5">
         <v>200</v>
       </c>
       <c r="G5" s="17" t="s">

--- a/src/test/java/Orders/Data/Orders.xlsx
+++ b/src/test/java/Orders/Data/Orders.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APIAutomation\Automation_OMSAPI\src\test\java\Orders\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF479F1E-C9B8-4CA3-8C61-84553B504BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F8D578-9724-4555-B6DB-F74D328AFFD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="41820" yWindow="5985" windowWidth="5880" windowHeight="8175" tabRatio="357" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="357" activeTab="1" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
   </bookViews>
   <sheets>
     <sheet name="OrderSubscriptions" sheetId="14" r:id="rId1"/>
@@ -2942,8 +2942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA8D027-6E8C-4E62-B2F3-94FA83F4F6D0}">
   <dimension ref="A1:AK27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AE30" sqref="AE30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6051,8 +6051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743E006D-5A16-4AF8-97F0-E530401F0C8B}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="E19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6561,7 +6561,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>255</v>
       </c>
@@ -6574,7 +6574,7 @@
       <c r="D20" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="8" t="s">
         <v>293</v>
       </c>
       <c r="F20" s="4">

--- a/src/test/java/Orders/Data/Orders.xlsx
+++ b/src/test/java/Orders/Data/Orders.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APIAutomation\Automation_OMSAPI\src\test\java\Orders\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F8D578-9724-4555-B6DB-F74D328AFFD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDA3895-1716-4EB6-A625-E64C5DAC142B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="357" activeTab="1" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="357" firstSheet="2" activeTab="4" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
   </bookViews>
   <sheets>
     <sheet name="OrderSubscriptions" sheetId="14" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="450">
   <si>
     <t>Content_Type</t>
   </si>
@@ -2481,6 +2481,9 @@
     "Text":"TestCase_VTRAD-C990-B"
  }</t>
   </si>
+  <si>
+    <t>20.0</t>
+  </si>
 </sst>
 </file>
 
@@ -2489,7 +2492,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2543,6 +2546,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2579,7 +2596,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2625,6 +2642,22 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2942,8 +2975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA8D027-6E8C-4E62-B2F3-94FA83F4F6D0}">
   <dimension ref="A1:AK27"/>
   <sheetViews>
-    <sheetView topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AE30" sqref="AE30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4910,229 +4943,229 @@
         <v>115</v>
       </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+    <row r="18" spans="1:37" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="17" t="s">
+      <c r="D18" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="F18" s="18">
-        <v>200</v>
-      </c>
-      <c r="G18" s="17" t="s">
+      <c r="F18" s="24">
+        <v>200</v>
+      </c>
+      <c r="G18" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="17" t="s">
+      <c r="H18" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="17">
-        <v>200</v>
-      </c>
-      <c r="J18" s="17" t="s">
+      <c r="I18" s="23">
+        <v>200</v>
+      </c>
+      <c r="J18" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="K18" s="19">
+      <c r="K18" s="25">
         <v>3</v>
       </c>
-      <c r="L18" s="17">
-        <v>1</v>
-      </c>
-      <c r="M18" s="17" t="s">
+      <c r="L18" s="23">
+        <v>1</v>
+      </c>
+      <c r="M18" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="N18" s="17" t="s">
+      <c r="N18" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="O18" s="11" t="s">
+      <c r="O18" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="P18" s="17" t="s">
+      <c r="P18" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="Q18" s="20">
+      <c r="Q18" s="27">
         <v>0</v>
       </c>
-      <c r="R18" s="20">
+      <c r="R18" s="27">
         <v>222</v>
       </c>
-      <c r="S18" s="17">
+      <c r="S18" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="T18" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="U18" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="V18" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="W18" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="X18" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y18" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z18" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA18" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB18" s="27">
         <v>0</v>
       </c>
-      <c r="T18" s="17" t="s">
+      <c r="AC18" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD18" s="27">
+        <v>222</v>
+      </c>
+      <c r="AE18" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="U18" s="17" t="s">
+      <c r="AF18" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG18" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH18" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI18" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ18" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK18" s="22" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:37" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>264</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="F19" s="24">
+        <v>200</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="23">
+        <v>200</v>
+      </c>
+      <c r="J19" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="K19" s="25">
+        <v>3</v>
+      </c>
+      <c r="L19" s="23">
+        <v>1</v>
+      </c>
+      <c r="M19" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="N19" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="O19" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="P19" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q19" s="27">
+        <v>0</v>
+      </c>
+      <c r="R19" s="27">
+        <v>222</v>
+      </c>
+      <c r="S19" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="T19" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="U19" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="V18" s="17" t="s">
+      <c r="V19" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="W18" s="17" t="s">
+      <c r="W19" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="X18" s="17" t="s">
+      <c r="X19" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="Y18" s="17" t="s">
+      <c r="Y19" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="Z18" s="17" t="s">
+      <c r="Z19" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="AA18" s="17" t="s">
+      <c r="AA19" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="AB18" s="20">
+      <c r="AB19" s="27">
         <v>0</v>
       </c>
-      <c r="AC18" s="17" t="s">
+      <c r="AC19" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="AD18" s="20">
+      <c r="AD19" s="27">
         <v>222</v>
       </c>
-      <c r="AE18" s="17" t="s">
+      <c r="AE19" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="AF18" s="17" t="s">
+      <c r="AF19" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="AG18" s="17" t="s">
+      <c r="AG19" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="AH18" s="17" t="s">
+      <c r="AH19" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="AI18" s="17" t="s">
+      <c r="AI19" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AJ18" s="17" t="s">
+      <c r="AJ19" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="AK18" s="16" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
-        <v>264</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="F19" s="18">
-        <v>200</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="17">
-        <v>200</v>
-      </c>
-      <c r="J19" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="K19" s="19">
-        <v>3</v>
-      </c>
-      <c r="L19" s="17">
-        <v>1</v>
-      </c>
-      <c r="M19" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="N19" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="O19" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="P19" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q19" s="20">
-        <v>0</v>
-      </c>
-      <c r="R19" s="20">
-        <v>222</v>
-      </c>
-      <c r="S19" s="17">
-        <v>0</v>
-      </c>
-      <c r="T19" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="U19" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="V19" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="W19" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="X19" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y19" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z19" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA19" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB19" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD19" s="20">
-        <v>222</v>
-      </c>
-      <c r="AE19" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF19" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG19" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH19" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI19" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ19" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK19" s="16" t="s">
+      <c r="AK19" s="22" t="s">
         <v>284</v>
       </c>
     </row>
@@ -5249,116 +5282,116 @@
         <v>285</v>
       </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
+    <row r="21" spans="1:37" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
         <v>266</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="17" t="s">
+      <c r="D21" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="F21" s="18">
-        <v>200</v>
-      </c>
-      <c r="G21" s="17" t="s">
+      <c r="F21" s="24">
+        <v>200</v>
+      </c>
+      <c r="G21" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="17" t="s">
+      <c r="H21" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I21" s="17">
-        <v>200</v>
-      </c>
-      <c r="J21" s="17" t="s">
+      <c r="I21" s="23">
+        <v>200</v>
+      </c>
+      <c r="J21" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="K21" s="19">
+      <c r="K21" s="25">
         <v>3</v>
       </c>
-      <c r="L21" s="17">
-        <v>1</v>
-      </c>
-      <c r="M21" s="17" t="s">
+      <c r="L21" s="23">
+        <v>1</v>
+      </c>
+      <c r="M21" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="N21" s="17" t="s">
+      <c r="N21" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="O21" s="11" t="s">
+      <c r="O21" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="P21" s="17" t="s">
+      <c r="P21" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="Q21" s="20">
+      <c r="Q21" s="27">
         <v>0</v>
       </c>
-      <c r="R21" s="20">
+      <c r="R21" s="27">
         <v>222</v>
       </c>
-      <c r="S21" s="17">
+      <c r="S21" s="23" t="s">
+        <v>449</v>
+      </c>
+      <c r="T21" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="U21" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="V21" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="W21" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="X21" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y21" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z21" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA21" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB21" s="27">
         <v>0</v>
       </c>
-      <c r="T21" s="17" t="s">
+      <c r="AC21" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD21" s="27">
+        <v>222</v>
+      </c>
+      <c r="AE21" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="U21" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="V21" s="17" t="s">
+      <c r="AF21" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG21" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH21" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="W21" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="X21" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y21" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z21" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA21" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB21" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD21" s="20">
-        <v>222</v>
-      </c>
-      <c r="AE21" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF21" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG21" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH21" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI21" s="17" t="s">
+      <c r="AI21" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AJ21" s="17" t="s">
+      <c r="AJ21" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="AK21" s="16" t="s">
+      <c r="AK21" s="22" t="s">
         <v>286</v>
       </c>
     </row>
@@ -5927,116 +5960,116 @@
         <v>291</v>
       </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+    <row r="27" spans="1:37" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E27" s="17" t="s">
+      <c r="D27" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="F27" s="18">
-        <v>200</v>
-      </c>
-      <c r="G27" s="17" t="s">
+      <c r="F27" s="24">
+        <v>200</v>
+      </c>
+      <c r="G27" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="17" t="s">
+      <c r="H27" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="I27" s="17">
-        <v>200</v>
-      </c>
-      <c r="J27" s="17" t="s">
+      <c r="I27" s="23">
+        <v>200</v>
+      </c>
+      <c r="J27" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="K27" s="19">
+      <c r="K27" s="25">
         <v>3</v>
       </c>
-      <c r="L27" s="17">
-        <v>1</v>
-      </c>
-      <c r="M27" s="17" t="s">
+      <c r="L27" s="23">
+        <v>1</v>
+      </c>
+      <c r="M27" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="N27" s="17" t="s">
+      <c r="N27" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="O27" s="11" t="s">
+      <c r="O27" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="P27" s="17" t="s">
+      <c r="P27" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="Q27" s="20">
+      <c r="Q27" s="27">
         <v>0</v>
       </c>
-      <c r="R27" s="20">
+      <c r="R27" s="27">
         <v>222</v>
       </c>
-      <c r="S27" s="17">
+      <c r="S27" s="23" t="s">
+        <v>320</v>
+      </c>
+      <c r="T27" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="U27" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="V27" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="W27" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="X27" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y27" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z27" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA27" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB27" s="27">
         <v>0</v>
       </c>
-      <c r="T27" s="17" t="s">
+      <c r="AC27" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD27" s="27">
+        <v>222</v>
+      </c>
+      <c r="AE27" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="U27" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="V27" s="17" t="s">
+      <c r="AF27" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG27" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH27" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="W27" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="X27" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y27" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z27" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB27" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD27" s="20">
-        <v>222</v>
-      </c>
-      <c r="AE27" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF27" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG27" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH27" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI27" s="17" t="s">
+      <c r="AI27" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="AJ27" s="17" t="s">
+      <c r="AJ27" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="AK27" s="16" t="s">
+      <c r="AK27" s="22" t="s">
         <v>292</v>
       </c>
     </row>
@@ -6051,7 +6084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743E006D-5A16-4AF8-97F0-E530401F0C8B}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -8111,8 +8144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC32307C-E7E7-45A6-BDDF-2098EC346FB1}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E7:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8290,7 +8323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="195" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>422</v>
       </c>
@@ -8303,7 +8336,7 @@
       <c r="D4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="21" t="s">
         <v>421</v>
       </c>
       <c r="F4">

--- a/src/test/java/Orders/Data/Orders.xlsx
+++ b/src/test/java/Orders/Data/Orders.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APIAutomation\Automation_OMSAPI\src\test\java\Orders\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDA3895-1716-4EB6-A625-E64C5DAC142B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BF09F8-666F-49A0-9C17-DCE6CCF75DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="357" firstSheet="2" activeTab="4" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="357" firstSheet="7" activeTab="8" xr2:uid="{A77A0332-03F7-4C79-B0EA-4DB171BB1F0C}"/>
   </bookViews>
   <sheets>
     <sheet name="OrderSubscriptions" sheetId="14" r:id="rId1"/>
@@ -21,6 +21,9 @@
     <sheet name="DeleteOrders" sheetId="20" r:id="rId6"/>
     <sheet name="OrderExecutions" sheetId="15" r:id="rId7"/>
     <sheet name="OrderPositions" sheetId="16" r:id="rId8"/>
+    <sheet name="UnSubscribeEquityOrder" sheetId="25" r:id="rId9"/>
+    <sheet name="UnSubscribeExecutions" sheetId="22" r:id="rId10"/>
+    <sheet name="UnSubscribeOrder_Positions" sheetId="24" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1785" uniqueCount="467">
   <si>
     <t>Content_Type</t>
   </si>
@@ -2483,6 +2486,57 @@
   </si>
   <si>
     <t>20.0</t>
+  </si>
+  <si>
+    <t>UnSubscribe_Executions_TestCase</t>
+  </si>
+  <si>
+    <t>Endpoint_Version</t>
+  </si>
+  <si>
+    <t>UnSubscribe_Executions_BasePath</t>
+  </si>
+  <si>
+    <t>UnSubscribe_Executions_StatusCode</t>
+  </si>
+  <si>
+    <t>UnSubscribe_Validation_Message</t>
+  </si>
+  <si>
+    <t>Verify_UnSubscribeExecutions_TC0001</t>
+  </si>
+  <si>
+    <t>/int/ord/api/v3/subscription/executions/unsubscribe</t>
+  </si>
+  <si>
+    <t>Success!</t>
+  </si>
+  <si>
+    <t>TestCases</t>
+  </si>
+  <si>
+    <t>UnSubscribe_Order_Positions_BasePath</t>
+  </si>
+  <si>
+    <t>UnSubscribe_Order_Positions_StatusCode</t>
+  </si>
+  <si>
+    <t>UnSubscribe_Order_Positions_TC0001</t>
+  </si>
+  <si>
+    <t>/int/ord/api/v3/subscription/positions/unsubscribe</t>
+  </si>
+  <si>
+    <t>UnSubscribe_EquityOrder_BasePath</t>
+  </si>
+  <si>
+    <t>UnSubscribe_EquityOrder_StatusCode</t>
+  </si>
+  <si>
+    <t>UnSubscribe_EquityOrder_TC0001</t>
+  </si>
+  <si>
+    <t>/int/ord/api/v3/subscription/orders/unsubscribe</t>
   </si>
 </sst>
 </file>
@@ -6080,6 +6134,132 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA2500B-9097-4F3C-B01F-332775FB4427}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>450</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>455</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>200</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CE25F39-7486-43C7-9179-1F1A09E27009}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>461</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>200</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{743E006D-5A16-4AF8-97F0-E530401F0C8B}">
   <dimension ref="A1:H23"/>
@@ -8144,8 +8324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC32307C-E7E7-45A6-BDDF-2098EC346FB1}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E7:E19"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9828,4 +10008,67 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95F5F4B1-B05D-4981-9635-B7E8614B5FF4}">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>458</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>451</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>465</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>200</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>457</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>